--- a/game/MMO/ExcelMMO/show.xlsx
+++ b/game/MMO/ExcelMMO/show.xlsx
@@ -8,16 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mtjmmo\branches\qy_yj_dev_2.0\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDC330A-579A-4DE4-A215-28495B1DBFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B91AA0-7197-44AA-B49C-BB3AEF6A2FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="list" sheetId="2" r:id="rId2"/>
     <sheet name="show" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -90,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="193">
   <si>
     <t>展示表</t>
   </si>
@@ -626,6 +639,171 @@
   </si>
   <si>
     <t>战力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【诺林特典】展示1-圣·暗夜骨翼</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅱ】展示1-圣·誓约之羽</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅲ】展示1-圣·深渊骨翼</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅳ】展示1-圣·修罗骨翼</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅴ】展示1-圣·造物者甲翼</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅶ】展示1-圣·圣血骨翼</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅶ】展示1-圣·灼·华翼</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅷ】展示1-圣·纯白之羽</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅸ】展示1-圣·先驱者甲翼</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅹ】展示1-圣·幻梦之羽</t>
+  </si>
+  <si>
+    <t>【绝版称号】展示1-绝版称号</t>
+  </si>
+  <si>
+    <t>【诺林特典】展示2-圣·夏日清凉武器包</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅱ】展示2-圣·幻想剧场武器包</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅲ】展示2-圣·蒸汽航路武器包</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅳ】展示2-圣·惊悚夜宴武器包</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅴ】展示2-圣·觅心猎手武器包</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅶ】展示2-圣·圣诞颂歌武器包</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅶ】展示2-圣·马戏小丑（衣服）</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅷ】展示2-圣·魔霜之契（衣服）</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅸ】展示2-圣·魔心獵手（衣服）</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅹ】展示2-圣·荒野灰狼（衣服）</t>
+  </si>
+  <si>
+    <t>【诺林特典】展示3-圣·夏日清凉服装包</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅱ】展示3-圣·幻想剧场服装包</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅲ】展示3-圣·蒸汽航路服装包</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅳ】展示3-圣·黑色盟約（衣服）</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅴ】展示3-圣·粉黛獵手（衣服）</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅶ】展示3-圣·圣诞颂歌服装包</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅶ】展示3-圣·青色盟約（衣服）</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅷ】展示3-圣·月霜之契（衣服）</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅸ】展示3-圣·荒野赤狼（衣服）</t>
+  </si>
+  <si>
+    <t>【诺林特典Ⅹ】展示3-圣·月冰之契（衣服）</t>
+  </si>
+  <si>
+    <t>38030001021,38030001022,38030001023,38030001024</t>
+  </si>
+  <si>
+    <t>38030001017,38030001018,38030001019,38030001020</t>
+  </si>
+  <si>
+    <t>38030001001,38030001002,38030001003,38030001004</t>
+  </si>
+  <si>
+    <t>38030001009,38030001010,38030001011,38030001012</t>
+  </si>
+  <si>
+    <t>38030001005,38030001006,38030001007,38030001008</t>
+  </si>
+  <si>
+    <t>38010001014,38020001014,38010001014,38020001014</t>
+  </si>
+  <si>
+    <t>38010001017,38020001017,38010001017,38020001017</t>
+  </si>
+  <si>
+    <t>38010001020,38020001020,38010001020,38020001020</t>
+  </si>
+  <si>
+    <t>38010001022,38020001022,38010001022,38020001022</t>
+  </si>
+  <si>
+    <t>38010001010,38020001010,38010001010,38020001010</t>
+  </si>
+  <si>
+    <t>38010001012,38020001012,38010001012,38020001012</t>
+  </si>
+  <si>
+    <t>38010001013,38020001013,38010001013,38020001013</t>
+  </si>
+  <si>
+    <t>38010001016,38020001016,38010001016,38020001016</t>
+  </si>
+  <si>
+    <t>38010001019,38020001019,38010001019,38020001019</t>
+  </si>
+  <si>
+    <t>38010001024,38020001024,38010001024,38020001024</t>
+  </si>
+  <si>
+    <t>38010001015,38020001015,38010001015,38020001015</t>
+  </si>
+  <si>
+    <t>38010001018,38020001018,38010001018,38020001018</t>
+  </si>
+  <si>
+    <t>38010001021,38020001021,38010001021,38020001021</t>
+  </si>
+  <si>
+    <t>38010001023,38020001023,38010001023,38020001023</t>
+  </si>
+  <si>
+    <t>-2760,300,-20000,1800</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6100,-1150,-10000,1800</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>38030001013,38030001014,38030001015,38030001016</t>
+  </si>
+  <si>
+    <t>500,-1150,-10000,1800</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,6 +932,7 @@
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1075,17 +1254,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42:G47"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="37.75" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="52.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="82.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
@@ -1995,7 +2174,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1107</v>
       </c>
@@ -2010,6 +2189,623 @@
       </c>
       <c r="E49" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1200</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="11">
+        <v>4</v>
+      </c>
+      <c r="D50" s="11">
+        <v>45100000023</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1201</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="11">
+        <v>4</v>
+      </c>
+      <c r="D51" s="11">
+        <v>45100000024</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F51">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1202</v>
+      </c>
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" s="11">
+        <v>45100000025</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1203</v>
+      </c>
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" s="11">
+        <v>45100000026</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F53">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1204</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" s="11">
+        <v>45100000027</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1205</v>
+      </c>
+      <c r="B55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" s="11">
+        <v>45100000028</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1206</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" s="11">
+        <v>45100000029</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F56">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1207</v>
+      </c>
+      <c r="B57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" s="11">
+        <v>45100000020</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F57">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1208</v>
+      </c>
+      <c r="B58" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58" s="11">
+        <v>45100000021</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1209</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" s="11">
+        <v>45100000022</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F59">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1210</v>
+      </c>
+      <c r="B60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60" s="11">
+        <v>22000001200</v>
+      </c>
+      <c r="F60">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1300</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1301</v>
+      </c>
+      <c r="B62" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1302</v>
+      </c>
+      <c r="B63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1303</v>
+      </c>
+      <c r="B64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F64">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1304</v>
+      </c>
+      <c r="B65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F65">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1305</v>
+      </c>
+      <c r="B66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1306</v>
+      </c>
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1307</v>
+      </c>
+      <c r="B68" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1308</v>
+      </c>
+      <c r="B69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F69">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1309</v>
+      </c>
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F70">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1400</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F71">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1401</v>
+      </c>
+      <c r="B72" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F72">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1402</v>
+      </c>
+      <c r="B73" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F73">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1403</v>
+      </c>
+      <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1404</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F75">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1405</v>
+      </c>
+      <c r="B76" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F76">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1406</v>
+      </c>
+      <c r="B77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F77">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1407</v>
+      </c>
+      <c r="B78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F78">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1408</v>
+      </c>
+      <c r="B79" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F79">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1409</v>
+      </c>
+      <c r="B80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F80">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
